--- a/src/main/resources/wordAndExcelTemplates/Пример таблицы.xlsx
+++ b/src/main/resources/wordAndExcelTemplates/Пример таблицы.xlsx
@@ -1,67 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sitie\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narko\IdeaProjects\UniversityProject\src\main\resources\wordAndExcelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3DCC4B-962C-4A9E-BCFA-FDCF236B6B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{184B0EBF-B794-4F4E-AE86-2BEF63CFDB0A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D1623716-4A27-4E1C-BCF6-4F3F7F47B2DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Timmy</t>
+    <t>Синицын Тимофей Евгеньевич</t>
   </si>
   <si>
-    <t>Nikita</t>
+    <t>Солянов Никита Михайлович</t>
   </si>
   <si>
-    <t>Serega</t>
+    <t>Шилло Сергей Хз</t>
   </si>
   <si>
-    <t>Gogol</t>
-  </si>
-  <si>
-    <t>Esenin</t>
-  </si>
-  <si>
-    <t>Remnatov</t>
-  </si>
-  <si>
-    <t>Claus</t>
-  </si>
-  <si>
-    <t>Xto</t>
-  </si>
-  <si>
-    <t>Ia</t>
-  </si>
-  <si>
-    <t>Xz</t>
+    <t>Минин Никита Игоревич</t>
   </si>
 </sst>
 </file>
@@ -414,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C79337-56E6-4364-9187-2AC508AECDA0}">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,54 +433,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/wordAndExcelTemplates/Пример таблицы.xlsx
+++ b/src/main/resources/wordAndExcelTemplates/Пример таблицы.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narko\IdeaProjects\UniversityProject\src\main\resources\wordAndExcelTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\universityProject\UniversityProject\src\main\resources\wordAndExcelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{184B0EBF-B794-4F4E-AE86-2BEF63CFDB0A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEE367D-E98C-45C9-AA52-BD037B1FECF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D1623716-4A27-4E1C-BCF6-4F3F7F47B2DC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="4">
   <si>
     <t>Синицын Тимофей Евгеньевич</t>
   </si>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C79337-56E6-4364-9187-2AC508AECDA0}">
-  <dimension ref="A2:B5"/>
+  <dimension ref="A2:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,6 +433,206 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/wordAndExcelTemplates/Пример таблицы.xlsx
+++ b/src/main/resources/wordAndExcelTemplates/Пример таблицы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\universityProject\UniversityProject\src\main\resources\wordAndExcelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEE367D-E98C-45C9-AA52-BD037B1FECF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4064A1-8649-4CF5-8B23-1D48994F07E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D1623716-4A27-4E1C-BCF6-4F3F7F47B2DC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>Синицын Тимофей Евгеньевич</t>
   </si>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C79337-56E6-4364-9187-2AC508AECDA0}">
-  <dimension ref="A2:B30"/>
+  <dimension ref="A2:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,158 +481,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
